--- a/result/fractalDimensionSlope解析.xlsx
+++ b/result/fractalDimensionSlope解析.xlsx
@@ -9,18 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="fractalDimensionSlope" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet9" sheetId="10" r:id="rId7"/>
+    <sheet name="Sheet10" sheetId="11" r:id="rId8"/>
+    <sheet name="fractalDimensionSlope" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="24">
   <si>
     <t>2*2</t>
   </si>
@@ -80,6 +87,22 @@
   </si>
   <si>
     <t>データの個数</t>
+  </si>
+  <si>
+    <t>データ区間</t>
+  </si>
+  <si>
+    <t>次の級</t>
+  </si>
+  <si>
+    <t>頻度</t>
+  </si>
+  <si>
+    <t>データ区間</t>
+    <rPh sb="3" eb="5">
+      <t>クカン</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
   </si>
 </sst>
 </file>
@@ -758,7 +781,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -788,6 +811,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -845,6 +874,1940 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>ヒストグラム</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>頻度</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>次の級</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C421-4AF4-A89D-6CDCCF81A678}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="526496912"/>
+        <c:axId val="526503144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="526496912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="526503144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="526503144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>頻度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="526496912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>ヒストグラム</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>頻度</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>次の級</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-187E-4FB4-9356-FA618D1E8425}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="526462472"/>
+        <c:axId val="526471328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="526462472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="526471328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="526471328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>頻度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="526462472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>ヒストグラム</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>頻度</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>次の級</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4220-4B43-8EBC-97DBA4613FE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="526485432"/>
+        <c:axId val="526486088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="526485432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>データ区間</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="526486088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="526486088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>頻度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="526485432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>ヒストグラム</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>頻度</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet7!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>次の級</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet7!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C8DA-44FD-AEC7-83667FB1AA5C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="527692688"/>
+        <c:axId val="527690720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="527692688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>データ区間</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="527690720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="527690720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>頻度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="527692688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>ヒストグラム</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>頻度</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet8!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>次の級</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet8!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4738-492E-913B-C69D0827E2D0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="527708760"/>
+        <c:axId val="527710400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="527708760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>データ区間</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="527710400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="527710400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>頻度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="527708760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>ヒストグラム</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>頻度</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet9!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>次の級</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet9!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7A65-466E-982B-C0B1D296B7AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="478916872"/>
+        <c:axId val="478899816"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="478916872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>データ区間</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="478899816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="478899816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>頻度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="478916872"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>ヒストグラム</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>頻度</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet10!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>次の級</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet10!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-062C-40AF-BBA5-C4A07A481E31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="604067488"/>
+        <c:axId val="604062240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="604067488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>データ区間</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="604062240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="604062240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>頻度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="604067488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1112,7 +3075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -1742,13 +3705,870 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="10">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A11">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="10">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A11">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:B12 B1" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="10">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A12">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="10">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A12">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="10">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A12">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="10">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A12">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="10">
+        <v>1.2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="10">
+        <v>1.4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="10">
+        <v>1.5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="10">
+        <v>1.7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="10">
+        <v>1.8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="10">
+        <v>1.9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="10">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A12">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J82"/>
+  <sheetViews>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1774,7 +4594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1.6953309080000001</v>
       </c>
@@ -1799,8 +4619,11 @@
       <c r="H2">
         <v>1.326514706</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>1.4674246200000001</v>
       </c>
@@ -1822,8 +4645,11 @@
       <c r="H3">
         <v>1.369975637</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>1.487328558</v>
       </c>
@@ -1845,8 +4671,11 @@
       <c r="H4">
         <v>1.2060009679999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>1.5344998139999999</v>
       </c>
@@ -1868,8 +4697,11 @@
       <c r="H5">
         <v>1.3562438349999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J5">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C6">
         <v>1.4602211279999999</v>
       </c>
@@ -1888,8 +4720,11 @@
       <c r="H6">
         <v>1.357984436</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J6">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C7">
         <v>1.475425003</v>
       </c>
@@ -1908,8 +4743,11 @@
       <c r="H7">
         <v>1.3824207399999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J7">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C8">
         <v>1.4452312860000001</v>
       </c>
@@ -1928,8 +4766,11 @@
       <c r="H8">
         <v>1.355203299</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J8">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C9">
         <v>1.4614124340000001</v>
       </c>
@@ -1948,8 +4789,11 @@
       <c r="H9">
         <v>1.258691569</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J9">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="C10">
         <v>1.4783310030000001</v>
       </c>
@@ -1968,8 +4812,11 @@
       <c r="H10">
         <v>1.351309826</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J10">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D11">
         <v>1.383953679</v>
       </c>
@@ -1985,8 +4832,11 @@
       <c r="H11">
         <v>1.3306663590000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J11">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D12">
         <v>1.5091875699999999</v>
       </c>
@@ -2002,8 +4852,11 @@
       <c r="H12">
         <v>1.2148176900000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D13">
         <v>1.4368837779999999</v>
       </c>
@@ -2020,7 +4873,7 @@
         <v>1.2659983669999999</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D14">
         <v>1.3959176230000001</v>
       </c>
@@ -2037,7 +4890,7 @@
         <v>1.3289950429999999</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D15">
         <v>1.4503713149999999</v>
       </c>
@@ -2054,7 +4907,7 @@
         <v>1.316191509</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="D16">
         <v>1.4292038899999999</v>
       </c>
